--- a/test/files/example_empty.xlsx
+++ b/test/files/example_empty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4C0C2-D54A-1643-BB5B-CE8C43C371F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C026E9FA-3ABF-4C45-8401-F7E436708B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
-    <sheet name="currency_movements" sheetId="10" r:id="rId7"/>
+    <sheet name="money_transfers" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>

--- a/test/files/example_empty.xlsx
+++ b/test/files/example_empty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C026E9FA-3ABF-4C45-8401-F7E436708B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C9922A-7DE4-614F-84B3-09459673969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -86,9 +86,6 @@
     <t>source_currency</t>
   </si>
   <si>
-    <t>foreign_amount</t>
-  </si>
-  <si>
     <t>source_fees</t>
   </si>
   <si>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>buy_date</t>
+  </si>
+  <si>
+    <t>source_amount</t>
+  </si>
+  <si>
+    <t>target_amount</t>
+  </si>
+  <si>
+    <t>target_fees</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -428,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -604,9 +610,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -614,24 +620,30 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -653,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -665,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/test/files/example_empty.xlsx
+++ b/test/files/example_empty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C9922A-7DE4-614F-84B3-09459673969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAACB8-6B29-6E46-8542-3B4A95A7F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -86,9 +86,6 @@
     <t>source_currency</t>
   </si>
   <si>
-    <t>source_fees</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>target_amount</t>
   </si>
   <si>
-    <t>target_fees</t>
+    <t>fee_currency</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -434,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFF433-2BAD-994E-8662-CF5793AE5261}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -491,7 +488,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,13 +502,16 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -522,16 +522,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,16 +545,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -562,7 +565,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -570,7 +573,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -578,7 +581,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -586,7 +589,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -594,7 +597,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -612,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -625,25 +628,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -654,47 +657,50 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
     </row>
   </sheetData>
